--- a/hmm_train_perf_testing.xlsx
+++ b/hmm_train_perf_testing.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="117">
   <si>
     <t>xsb5_(1,:)</t>
   </si>
@@ -369,6 +369,15 @@
   </si>
   <si>
     <t>needle passing I1 does not exist</t>
+  </si>
+  <si>
+    <t>prob KT</t>
+  </si>
+  <si>
+    <t>prob NP</t>
+  </si>
+  <si>
+    <t>prob S</t>
   </si>
 </sst>
 </file>
@@ -693,7 +702,7 @@
   <dimension ref="A1:L84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,6 +813,9 @@
       <c r="B8" s="1">
         <v>2</v>
       </c>
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
       <c r="D8">
         <v>0.30790000000000001</v>
       </c>
@@ -839,6 +851,9 @@
       <c r="B9" s="1">
         <v>2</v>
       </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
       <c r="D9">
         <v>0.3367</v>
       </c>
@@ -873,6 +888,9 @@
       </c>
       <c r="B10" s="1">
         <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
       </c>
       <c r="D10">
         <v>0.35539999999999999</v>
